--- a/biology/Zoologie/Cocuage/Cocuage.xlsx
+++ b/biology/Zoologie/Cocuage/Cocuage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cocuage en zoologie est la copulation d’un mâle et d’une femelle en dehors du lien social du couple chez les espèces monogames. Dans un système polygame, le cocuage a lieu lorsqu’un individu s’accouple avec un autre n’appartenant pas au groupe social[1],[2].
-Le cocuage est un phénomène répandu et bien documenté chez les oiseaux.  Des analyses ADN sur la paternité du mâle chez 150 espèces d’oiseaux révèle que dans 70 % des cas, il y a au moins un oisillon de la couvée qui provient d’un autre mâle[1]. Le cocuage s’observe aussi chez les poissons[3] et les mammifères[4].
-Une étude révèle que jusqu’à 55 % des rejetons du Bruant des roseaux sont issus d’un autre mâle que celui du couple et que jusqu’à 86 % des couvées hébergent au moins un oisillon provenant d’un autre mâle[5]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cocuage en zoologie est la copulation d’un mâle et d’une femelle en dehors du lien social du couple chez les espèces monogames. Dans un système polygame, le cocuage a lieu lorsqu’un individu s’accouple avec un autre n’appartenant pas au groupe social,.
+Le cocuage est un phénomène répandu et bien documenté chez les oiseaux.  Des analyses ADN sur la paternité du mâle chez 150 espèces d’oiseaux révèle que dans 70 % des cas, il y a au moins un oisillon de la couvée qui provient d’un autre mâle. Le cocuage s’observe aussi chez les poissons et les mammifères.
+Une étude révèle que jusqu’à 55 % des rejetons du Bruant des roseaux sont issus d’un autre mâle que celui du couple et que jusqu’à 86 % des couvées hébergent au moins un oisillon provenant d’un autre mâle
 </t>
         </is>
       </c>
